--- a/doc/04_外部設計書_F2.xlsx
+++ b/doc/04_外部設計書_F2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\F2の成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB5B69D3-FA35-48F4-9656-0AB900C82C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A4D249-B290-46DC-9383-943D54C9335E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="795" windowWidth="18975" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -1419,18 +1419,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1503,9 +1492,20 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1530,15 +1530,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>182617</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>169480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>20692</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>40275</xdr:rowOff>
+      <xdr:rowOff>171655</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1567,8 +1567,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="504825" y="2324100"/>
-          <a:ext cx="5086350" cy="2859675"/>
+          <a:off x="458514" y="2455480"/>
+          <a:ext cx="5080109" cy="2859675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2053,7 +2053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -2063,158 +2063,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="48" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="49" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49" t="s">
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="36" t="s">
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="56" t="s">
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="57"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="54"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="58" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59" t="s">
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59" t="s">
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="60">
+      <c r="X2" s="56"/>
+      <c r="Y2" s="57">
         <v>44718</v>
       </c>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="33" t="s">
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="62">
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="59">
         <v>44718</v>
       </c>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="35"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="61"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="50" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="51"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="55"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="52"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -2483,15 +2483,15 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -2502,15 +2502,15 @@
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
-      <c r="Y11" s="37" t="s">
+      <c r="Y11" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="38"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
       <c r="AF11" s="9"/>
       <c r="AG11" s="9"/>
       <c r="AH11" s="9"/>
@@ -2529,13 +2529,13 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
@@ -2546,13 +2546,13 @@
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="38"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
       <c r="AF12" s="9"/>
       <c r="AG12" s="9"/>
       <c r="AH12" s="9"/>
@@ -3955,15 +3955,15 @@
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="37" t="s">
+      <c r="F46" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
@@ -3999,13 +3999,13 @@
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
@@ -4017,15 +4017,15 @@
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
       <c r="W47" s="9"/>
-      <c r="X47" s="37" t="s">
+      <c r="X47" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="Y47" s="38"/>
-      <c r="Z47" s="38"/>
-      <c r="AA47" s="38"/>
-      <c r="AB47" s="38"/>
-      <c r="AC47" s="38"/>
-      <c r="AD47" s="38"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="35"/>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="35"/>
+      <c r="AD47" s="35"/>
       <c r="AE47" s="9"/>
       <c r="AF47" s="9"/>
       <c r="AG47" s="9"/>
@@ -4061,13 +4061,13 @@
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
       <c r="W48" s="9"/>
-      <c r="X48" s="38"/>
-      <c r="Y48" s="38"/>
-      <c r="Z48" s="38"/>
-      <c r="AA48" s="38"/>
-      <c r="AB48" s="38"/>
-      <c r="AC48" s="38"/>
-      <c r="AD48" s="38"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="35"/>
+      <c r="AD48" s="35"/>
       <c r="AE48" s="9"/>
       <c r="AF48" s="9"/>
       <c r="AG48" s="9"/>
@@ -4804,7 +4804,7 @@
       <c r="C65" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="61" t="s">
+      <c r="D65" s="33" t="s">
         <v>120</v>
       </c>
       <c r="E65" s="23"/>
@@ -7472,6 +7472,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="H11:N12"/>
+    <mergeCell ref="Y11:AE12"/>
     <mergeCell ref="X47:AD48"/>
     <mergeCell ref="F46:L47"/>
     <mergeCell ref="A1:J3"/>
@@ -7488,9 +7491,6 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="H11:N12"/>
-    <mergeCell ref="Y11:AE12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/doc/04_外部設計書_F2.xlsx
+++ b/doc/04_外部設計書_F2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo7\F-2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A4D249-B290-46DC-9383-943D54C9335E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26521EB0-7DF5-4698-90A2-EA6A4426C382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -278,28 +278,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>11種類、期限に応じて変化（一戸先生に確認）</t>
-    <rPh sb="2" eb="4">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>イチノヘセンセイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>状態</t>
     <rPh sb="0" eb="2">
       <t>ジョウタイ</t>
@@ -360,10 +338,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>パスワードでログイン</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>現在日時</t>
     <rPh sb="0" eb="4">
       <t>ゲンザイニチジ</t>
@@ -828,28 +802,6 @@
     <t>は必須機能</t>
     <rPh sb="1" eb="5">
       <t>ヒッスキノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>タスク確認（期限順にソート、完了状態の物を非表示）</t>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>キゲンジュン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ヒヒョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -928,6 +880,66 @@
       </rPr>
       <t>：完了</t>
     </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザID、パスワードでログイン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスク確認（期限順にソート、完了状態の物を非表示は出来たらで良い。優先度は低め）</t>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>キゲンジュン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ユウセンド</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヒク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>12種類、期限に応じて変化（一戸先生に確認）</t>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>イチノヘセンセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1420,6 +1432,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1503,9 +1518,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2053,7 +2065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -2063,158 +2075,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="45" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46" t="s">
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46" t="s">
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="55"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="54"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56" t="s">
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="57">
+      <c r="X2" s="57"/>
+      <c r="Y2" s="58">
         <v>44718</v>
       </c>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="58" t="s">
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="59">
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="60">
         <v>44718</v>
       </c>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="62"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="47" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="52"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="52"/>
+      <c r="AH3" s="52"/>
+      <c r="AI3" s="52"/>
+      <c r="AJ3" s="52"/>
+      <c r="AK3" s="52"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="53"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -2476,22 +2488,22 @@
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
+      <c r="H11" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -2502,15 +2514,15 @@
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
-      <c r="Y11" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
+      <c r="Y11" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
       <c r="AF11" s="9"/>
       <c r="AG11" s="9"/>
       <c r="AH11" s="9"/>
@@ -2529,13 +2541,13 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
@@ -2546,13 +2558,13 @@
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="35"/>
-      <c r="AE12" s="35"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
       <c r="AF12" s="9"/>
       <c r="AG12" s="9"/>
       <c r="AH12" s="9"/>
@@ -3955,15 +3967,15 @@
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
+      <c r="F46" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
@@ -3999,13 +4011,13 @@
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
@@ -4017,15 +4029,15 @@
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
       <c r="W47" s="9"/>
-      <c r="X47" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y47" s="35"/>
-      <c r="Z47" s="35"/>
-      <c r="AA47" s="35"/>
-      <c r="AB47" s="35"/>
-      <c r="AC47" s="35"/>
-      <c r="AD47" s="35"/>
+      <c r="X47" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y47" s="36"/>
+      <c r="Z47" s="36"/>
+      <c r="AA47" s="36"/>
+      <c r="AB47" s="36"/>
+      <c r="AC47" s="36"/>
+      <c r="AD47" s="36"/>
       <c r="AE47" s="9"/>
       <c r="AF47" s="9"/>
       <c r="AG47" s="9"/>
@@ -4061,13 +4073,13 @@
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
       <c r="W48" s="9"/>
-      <c r="X48" s="35"/>
-      <c r="Y48" s="35"/>
-      <c r="Z48" s="35"/>
-      <c r="AA48" s="35"/>
-      <c r="AB48" s="35"/>
-      <c r="AC48" s="35"/>
-      <c r="AD48" s="35"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="36"/>
+      <c r="Z48" s="36"/>
+      <c r="AA48" s="36"/>
+      <c r="AB48" s="36"/>
+      <c r="AC48" s="36"/>
+      <c r="AD48" s="36"/>
       <c r="AE48" s="9"/>
       <c r="AF48" s="9"/>
       <c r="AG48" s="9"/>
@@ -4312,7 +4324,7 @@
       <c r="S54" s="8"/>
       <c r="T54" s="30"/>
       <c r="U54" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="V54" s="8"/>
       <c r="W54" s="8"/>
@@ -4434,7 +4446,7 @@
         <v>21</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D57" s="23"/>
       <c r="E57" s="23"/>
@@ -4667,7 +4679,7 @@
         <v>25</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
@@ -4712,7 +4724,7 @@
         <v>21</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D63" s="25"/>
       <c r="E63" s="23"/>
@@ -4759,7 +4771,7 @@
         <v>25</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
@@ -4805,7 +4817,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="23"/>
@@ -4850,7 +4862,7 @@
         <v>21</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D66" s="25"/>
       <c r="E66" s="23"/>
@@ -4897,7 +4909,7 @@
         <v>25</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E67" s="23"/>
       <c r="F67" s="23"/>
@@ -4942,7 +4954,7 @@
         <v>21</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D68" s="25"/>
       <c r="E68" s="23"/>
@@ -4988,7 +5000,7 @@
         <v>21</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D69" s="27"/>
       <c r="E69" s="28"/>
@@ -5035,7 +5047,7 @@
         <v>25</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="E70" s="23"/>
       <c r="F70" s="23"/>
@@ -5773,24 +5785,24 @@
       <c r="B87" s="14"/>
       <c r="C87" s="15"/>
       <c r="D87" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
       <c r="L87" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
       <c r="O87" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
@@ -5807,7 +5819,7 @@
       <c r="AB87" s="17"/>
       <c r="AC87" s="19"/>
       <c r="AD87" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AE87" s="17"/>
       <c r="AF87" s="17"/>
@@ -5825,34 +5837,34 @@
       <c r="B88" s="14"/>
       <c r="C88" s="15"/>
       <c r="D88" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
       <c r="L88" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
       <c r="O88" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
       <c r="R88" s="19"/>
       <c r="S88" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T88" s="19"/>
       <c r="U88" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V88" s="19"/>
       <c r="W88" s="16"/>
@@ -5879,24 +5891,24 @@
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
       <c r="D89" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
       <c r="H89" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
       <c r="L89" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>
       <c r="O89" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P89" s="17"/>
       <c r="Q89" s="17"/>
@@ -5913,7 +5925,7 @@
       <c r="AB89" s="17"/>
       <c r="AC89" s="19"/>
       <c r="AD89" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AE89" s="17"/>
       <c r="AF89" s="17"/>
@@ -5931,24 +5943,24 @@
       <c r="B90" s="14"/>
       <c r="C90" s="15"/>
       <c r="D90" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="15"/>
       <c r="H90" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
       <c r="K90" s="19"/>
       <c r="L90" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M90" s="17"/>
       <c r="N90" s="19"/>
       <c r="O90" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
@@ -5981,24 +5993,24 @@
       <c r="B91" s="14"/>
       <c r="C91" s="15"/>
       <c r="D91" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="15"/>
       <c r="H91" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="17"/>
       <c r="K91" s="19"/>
       <c r="L91" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M91" s="17"/>
       <c r="N91" s="19"/>
       <c r="O91" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P91" s="17"/>
       <c r="Q91" s="17"/>
@@ -6031,24 +6043,24 @@
       <c r="B92" s="14"/>
       <c r="C92" s="15"/>
       <c r="D92" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
       <c r="G92" s="15"/>
       <c r="H92" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I92" s="18"/>
       <c r="J92" s="17"/>
       <c r="K92" s="19"/>
       <c r="L92" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M92" s="17"/>
       <c r="N92" s="19"/>
       <c r="O92" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P92" s="17"/>
       <c r="Q92" s="17"/>
@@ -6081,24 +6093,24 @@
       <c r="B93" s="14"/>
       <c r="C93" s="15"/>
       <c r="D93" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
       <c r="G93" s="15"/>
       <c r="H93" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I93" s="18"/>
       <c r="J93" s="17"/>
       <c r="K93" s="19"/>
       <c r="L93" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M93" s="17"/>
       <c r="N93" s="19"/>
       <c r="O93" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P93" s="17"/>
       <c r="Q93" s="17"/>
@@ -6115,7 +6127,7 @@
       <c r="AB93" s="17"/>
       <c r="AC93" s="19"/>
       <c r="AD93" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AE93" s="17"/>
       <c r="AF93" s="17"/>
@@ -6133,19 +6145,19 @@
       <c r="B94" s="14"/>
       <c r="C94" s="15"/>
       <c r="D94" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E94" s="17"/>
       <c r="F94" s="17"/>
       <c r="G94" s="15"/>
       <c r="H94" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I94" s="18"/>
       <c r="J94" s="17"/>
       <c r="K94" s="19"/>
       <c r="L94" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M94" s="17"/>
       <c r="N94" s="19"/>
@@ -6165,7 +6177,7 @@
       <c r="AB94" s="17"/>
       <c r="AC94" s="19"/>
       <c r="AD94" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AE94" s="17"/>
       <c r="AF94" s="17"/>
@@ -6183,19 +6195,19 @@
       <c r="B95" s="14"/>
       <c r="C95" s="15"/>
       <c r="D95" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E95" s="17"/>
       <c r="F95" s="17"/>
       <c r="G95" s="15"/>
       <c r="H95" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I95" s="18"/>
       <c r="J95" s="17"/>
       <c r="K95" s="19"/>
       <c r="L95" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M95" s="17"/>
       <c r="N95" s="19"/>
@@ -6215,7 +6227,7 @@
       <c r="AB95" s="17"/>
       <c r="AC95" s="19"/>
       <c r="AD95" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AE95" s="17"/>
       <c r="AF95" s="17"/>
@@ -6233,19 +6245,19 @@
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
       <c r="D96" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E96" s="17"/>
       <c r="F96" s="17"/>
       <c r="G96" s="15"/>
       <c r="H96" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I96" s="18"/>
       <c r="J96" s="17"/>
       <c r="K96" s="19"/>
       <c r="L96" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M96" s="17"/>
       <c r="N96" s="19"/>
@@ -6265,7 +6277,7 @@
       <c r="AB96" s="17"/>
       <c r="AC96" s="19"/>
       <c r="AD96" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AE96" s="17"/>
       <c r="AF96" s="17"/>
@@ -6283,19 +6295,19 @@
       <c r="B97" s="14"/>
       <c r="C97" s="15"/>
       <c r="D97" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E97" s="17"/>
       <c r="F97" s="17"/>
       <c r="G97" s="15"/>
       <c r="H97" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I97" s="18"/>
       <c r="J97" s="17"/>
       <c r="K97" s="19"/>
       <c r="L97" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M97" s="17"/>
       <c r="N97" s="19"/>
@@ -6331,19 +6343,19 @@
       <c r="B98" s="14"/>
       <c r="C98" s="15"/>
       <c r="D98" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E98" s="17"/>
       <c r="F98" s="17"/>
       <c r="G98" s="15"/>
       <c r="H98" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I98" s="18"/>
       <c r="J98" s="17"/>
       <c r="K98" s="19"/>
       <c r="L98" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M98" s="17"/>
       <c r="N98" s="19"/>
@@ -6363,7 +6375,7 @@
       <c r="AB98" s="17"/>
       <c r="AC98" s="19"/>
       <c r="AD98" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AE98" s="17"/>
       <c r="AF98" s="17"/>
@@ -6381,19 +6393,19 @@
       <c r="B99" s="14"/>
       <c r="C99" s="15"/>
       <c r="D99" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E99" s="17"/>
       <c r="F99" s="17"/>
       <c r="G99" s="15"/>
       <c r="H99" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I99" s="18"/>
       <c r="J99" s="17"/>
       <c r="K99" s="19"/>
       <c r="L99" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M99" s="17"/>
       <c r="N99" s="19"/>
@@ -6413,7 +6425,7 @@
       <c r="AB99" s="17"/>
       <c r="AC99" s="19"/>
       <c r="AD99" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AE99" s="17"/>
       <c r="AF99" s="17"/>
@@ -6431,24 +6443,24 @@
       <c r="B100" s="14"/>
       <c r="C100" s="15"/>
       <c r="D100" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E100" s="17"/>
       <c r="F100" s="17"/>
       <c r="G100" s="15"/>
       <c r="H100" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I100" s="18"/>
       <c r="J100" s="17"/>
       <c r="K100" s="19"/>
       <c r="L100" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M100" s="17"/>
       <c r="N100" s="19"/>
       <c r="O100" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P100" s="17"/>
       <c r="Q100" s="17"/>
@@ -6465,7 +6477,7 @@
       <c r="AB100" s="17"/>
       <c r="AC100" s="19"/>
       <c r="AD100" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AE100" s="17"/>
       <c r="AF100" s="17"/>
@@ -6483,19 +6495,19 @@
       <c r="B101" s="14"/>
       <c r="C101" s="15"/>
       <c r="D101" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E101" s="17"/>
       <c r="F101" s="17"/>
       <c r="G101" s="15"/>
       <c r="H101" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I101" s="18"/>
       <c r="J101" s="17"/>
       <c r="K101" s="19"/>
       <c r="L101" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M101" s="17"/>
       <c r="N101" s="19"/>
@@ -6515,7 +6527,7 @@
       <c r="AB101" s="17"/>
       <c r="AC101" s="19"/>
       <c r="AD101" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AE101" s="17"/>
       <c r="AF101" s="17"/>
@@ -6533,19 +6545,19 @@
       <c r="B102" s="14"/>
       <c r="C102" s="15"/>
       <c r="D102" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E102" s="17"/>
       <c r="F102" s="17"/>
       <c r="G102" s="15"/>
       <c r="H102" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I102" s="18"/>
       <c r="J102" s="17"/>
       <c r="K102" s="19"/>
       <c r="L102" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M102" s="17"/>
       <c r="N102" s="19"/>
@@ -6581,19 +6593,19 @@
       <c r="B103" s="14"/>
       <c r="C103" s="15"/>
       <c r="D103" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E103" s="17"/>
       <c r="F103" s="17"/>
       <c r="G103" s="15"/>
       <c r="H103" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I103" s="18"/>
       <c r="J103" s="17"/>
       <c r="K103" s="19"/>
       <c r="L103" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M103" s="17"/>
       <c r="N103" s="19"/>
@@ -6629,19 +6641,19 @@
       <c r="B104" s="14"/>
       <c r="C104" s="15"/>
       <c r="D104" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E104" s="17"/>
       <c r="F104" s="17"/>
       <c r="G104" s="15"/>
       <c r="H104" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I104" s="18"/>
       <c r="J104" s="17"/>
       <c r="K104" s="19"/>
       <c r="L104" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M104" s="17"/>
       <c r="N104" s="19"/>
@@ -6677,19 +6689,19 @@
       <c r="B105" s="14"/>
       <c r="C105" s="15"/>
       <c r="D105" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E105" s="17"/>
       <c r="F105" s="17"/>
       <c r="G105" s="15"/>
       <c r="H105" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I105" s="18"/>
       <c r="J105" s="17"/>
       <c r="K105" s="19"/>
       <c r="L105" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M105" s="17"/>
       <c r="N105" s="19"/>
@@ -6725,19 +6737,19 @@
       <c r="B106" s="14"/>
       <c r="C106" s="15"/>
       <c r="D106" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E106" s="17"/>
       <c r="F106" s="17"/>
       <c r="G106" s="15"/>
       <c r="H106" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I106" s="18"/>
       <c r="J106" s="17"/>
       <c r="K106" s="19"/>
       <c r="L106" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M106" s="17"/>
       <c r="N106" s="19"/>
@@ -6773,19 +6785,19 @@
       <c r="B107" s="14"/>
       <c r="C107" s="15"/>
       <c r="D107" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E107" s="17"/>
       <c r="F107" s="17"/>
       <c r="G107" s="15"/>
       <c r="H107" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I107" s="18"/>
       <c r="J107" s="17"/>
       <c r="K107" s="19"/>
       <c r="L107" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M107" s="17"/>
       <c r="N107" s="19"/>
@@ -6821,19 +6833,19 @@
       <c r="B108" s="14"/>
       <c r="C108" s="15"/>
       <c r="D108" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E108" s="17"/>
       <c r="F108" s="17"/>
       <c r="G108" s="15"/>
       <c r="H108" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I108" s="18"/>
       <c r="J108" s="17"/>
       <c r="K108" s="19"/>
       <c r="L108" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M108" s="17"/>
       <c r="N108" s="19"/>
@@ -6869,19 +6881,19 @@
       <c r="B109" s="14"/>
       <c r="C109" s="15"/>
       <c r="D109" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="17"/>
       <c r="G109" s="15"/>
       <c r="H109" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I109" s="18"/>
       <c r="J109" s="17"/>
       <c r="K109" s="19"/>
       <c r="L109" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M109" s="17"/>
       <c r="N109" s="19"/>
@@ -6917,19 +6929,19 @@
       <c r="B110" s="14"/>
       <c r="C110" s="15"/>
       <c r="D110" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E110" s="17"/>
       <c r="F110" s="17"/>
       <c r="G110" s="15"/>
       <c r="H110" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I110" s="18"/>
       <c r="J110" s="17"/>
       <c r="K110" s="19"/>
       <c r="L110" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M110" s="17"/>
       <c r="N110" s="19"/>
@@ -6965,19 +6977,19 @@
       <c r="B111" s="14"/>
       <c r="C111" s="15"/>
       <c r="D111" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E111" s="17"/>
       <c r="F111" s="17"/>
       <c r="G111" s="15"/>
       <c r="H111" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I111" s="18"/>
       <c r="J111" s="17"/>
       <c r="K111" s="19"/>
       <c r="L111" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M111" s="17"/>
       <c r="N111" s="19"/>
@@ -7013,19 +7025,19 @@
       <c r="B112" s="14"/>
       <c r="C112" s="15"/>
       <c r="D112" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E112" s="17"/>
       <c r="F112" s="17"/>
       <c r="G112" s="15"/>
       <c r="H112" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I112" s="18"/>
       <c r="J112" s="17"/>
       <c r="K112" s="19"/>
       <c r="L112" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M112" s="17"/>
       <c r="N112" s="19"/>
@@ -7045,7 +7057,7 @@
       <c r="AB112" s="17"/>
       <c r="AC112" s="19"/>
       <c r="AD112" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AE112" s="17"/>
       <c r="AF112" s="17"/>
@@ -7063,19 +7075,19 @@
       <c r="B113" s="14"/>
       <c r="C113" s="15"/>
       <c r="D113" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E113" s="17"/>
       <c r="F113" s="17"/>
       <c r="G113" s="15"/>
       <c r="H113" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I113" s="18"/>
       <c r="J113" s="17"/>
       <c r="K113" s="19"/>
       <c r="L113" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M113" s="17"/>
       <c r="N113" s="19"/>
@@ -7095,7 +7107,7 @@
       <c r="AB113" s="17"/>
       <c r="AC113" s="19"/>
       <c r="AD113" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AE113" s="17"/>
       <c r="AF113" s="17"/>
@@ -7113,24 +7125,24 @@
       <c r="B114" s="14"/>
       <c r="C114" s="15"/>
       <c r="D114" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="17"/>
       <c r="G114" s="15"/>
       <c r="H114" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I114" s="18"/>
       <c r="J114" s="17"/>
       <c r="K114" s="19"/>
       <c r="L114" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M114" s="17"/>
       <c r="N114" s="19"/>
       <c r="O114" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P114" s="17"/>
       <c r="Q114" s="17"/>
@@ -7147,7 +7159,7 @@
       <c r="AB114" s="17"/>
       <c r="AC114" s="19"/>
       <c r="AD114" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AE114" s="17"/>
       <c r="AF114" s="17"/>
@@ -7165,24 +7177,24 @@
       <c r="B115" s="14"/>
       <c r="C115" s="15"/>
       <c r="D115" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E115" s="17"/>
       <c r="F115" s="17"/>
       <c r="G115" s="15"/>
       <c r="H115" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I115" s="18"/>
       <c r="J115" s="17"/>
       <c r="K115" s="19"/>
       <c r="L115" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M115" s="17"/>
       <c r="N115" s="19"/>
       <c r="O115" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P115" s="17"/>
       <c r="Q115" s="17"/>
@@ -7199,7 +7211,7 @@
       <c r="AB115" s="17"/>
       <c r="AC115" s="19"/>
       <c r="AD115" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AE115" s="17"/>
       <c r="AF115" s="17"/>
@@ -7217,19 +7229,19 @@
       <c r="B116" s="14"/>
       <c r="C116" s="15"/>
       <c r="D116" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E116" s="17"/>
       <c r="F116" s="17"/>
       <c r="G116" s="15"/>
       <c r="H116" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I116" s="18"/>
       <c r="J116" s="17"/>
       <c r="K116" s="19"/>
       <c r="L116" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M116" s="17"/>
       <c r="N116" s="19"/>
@@ -7472,6 +7484,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="H11:N12"/>
     <mergeCell ref="Y11:AE12"/>
@@ -7488,9 +7503,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
     <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/doc/04_外部設計書_F2.xlsx
+++ b/doc/04_外部設計書_F2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo7\F-2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26521EB0-7DF5-4698-90A2-EA6A4426C382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7792FDAC-C578-4D44-B149-2AC57CF7D799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-900" yWindow="0" windowWidth="20790" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="123">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -939,6 +939,26 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※ソートと非表示は未完成</t>
+    <rPh sb="5" eb="8">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ミカンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※空欄NGは未完成</t>
+    <rPh sb="1" eb="3">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ミカンセイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1432,6 +1452,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1500,24 +1538,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2075,158 +2095,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="46" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="47" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47" t="s">
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47" t="s">
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="34" t="s">
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="54" t="s">
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="55"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="61"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="56" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="57" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57" t="s">
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="58">
+      <c r="X2" s="35"/>
+      <c r="Y2" s="34">
         <v>44718</v>
       </c>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="59" t="s">
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="60">
-        <v>44718</v>
-      </c>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="62"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="37">
+        <v>44739</v>
+      </c>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="48" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="53"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="59"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -2495,15 +2515,15 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -2514,15 +2534,15 @@
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
-      <c r="Y11" s="35" t="s">
+      <c r="Y11" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="36"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
       <c r="AF11" s="9"/>
       <c r="AG11" s="9"/>
       <c r="AH11" s="9"/>
@@ -2541,13 +2561,13 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
@@ -2558,13 +2578,13 @@
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
       <c r="AF12" s="9"/>
       <c r="AG12" s="9"/>
       <c r="AH12" s="9"/>
@@ -3967,15 +3987,15 @@
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="35" t="s">
+      <c r="F46" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
@@ -4011,13 +4031,13 @@
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
@@ -4029,15 +4049,15 @@
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
       <c r="W47" s="9"/>
-      <c r="X47" s="35" t="s">
+      <c r="X47" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="Y47" s="36"/>
-      <c r="Z47" s="36"/>
-      <c r="AA47" s="36"/>
-      <c r="AB47" s="36"/>
-      <c r="AC47" s="36"/>
-      <c r="AD47" s="36"/>
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="42"/>
+      <c r="AA47" s="42"/>
+      <c r="AB47" s="42"/>
+      <c r="AC47" s="42"/>
+      <c r="AD47" s="42"/>
       <c r="AE47" s="9"/>
       <c r="AF47" s="9"/>
       <c r="AG47" s="9"/>
@@ -4073,13 +4093,13 @@
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
       <c r="W48" s="9"/>
-      <c r="X48" s="36"/>
-      <c r="Y48" s="36"/>
-      <c r="Z48" s="36"/>
-      <c r="AA48" s="36"/>
-      <c r="AB48" s="36"/>
-      <c r="AC48" s="36"/>
-      <c r="AD48" s="36"/>
+      <c r="X48" s="42"/>
+      <c r="Y48" s="42"/>
+      <c r="Z48" s="42"/>
+      <c r="AA48" s="42"/>
+      <c r="AB48" s="42"/>
+      <c r="AC48" s="42"/>
+      <c r="AD48" s="42"/>
       <c r="AE48" s="9"/>
       <c r="AF48" s="9"/>
       <c r="AG48" s="9"/>
@@ -4416,7 +4436,9 @@
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
+      <c r="R56" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
@@ -4467,7 +4489,9 @@
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
       <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
+      <c r="W57" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
       <c r="Z57" s="9"/>
@@ -7484,12 +7508,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="H11:N12"/>
-    <mergeCell ref="Y11:AE12"/>
     <mergeCell ref="X47:AD48"/>
     <mergeCell ref="F46:L47"/>
     <mergeCell ref="A1:J3"/>
@@ -7503,6 +7521,12 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
     <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="H11:N12"/>
+    <mergeCell ref="Y11:AE12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
